--- a/.gitbook/assets/Buggy Component List (2).xlsx
+++ b/.gitbook/assets/Buggy Component List (2).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28122"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CE08DFD-E9CD-44E5-9969-338A0F808CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BF37E45-6551-45EA-BA49-31D3B34369BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
   <si>
     <t>Buggy components list</t>
   </si>
@@ -189,12 +189,15 @@
     <t>https://ro.mouser.com/ProductDetail/Wurth-Elektronik/970450324?qs=wr8lucFkNMXOhbySD7%252BnDA%3D%3D</t>
   </si>
   <si>
+    <t>M2-12mm Bolt</t>
+  </si>
+  <si>
+    <t>any store</t>
+  </si>
+  <si>
     <t>M3-12mm Bolt</t>
   </si>
   <si>
-    <t>any store</t>
-  </si>
-  <si>
     <t>M3-5mm Bolt</t>
   </si>
   <si>
@@ -210,19 +213,28 @@
     <t>M3.5-10mm Bolt</t>
   </si>
   <si>
-    <t>M3.5-35mm Bolt</t>
+    <t>The screws come with the hexagonal adapters.</t>
+  </si>
+  <si>
+    <t>M5-35mm Bolt</t>
   </si>
   <si>
     <t>M5-20mm Bolt</t>
   </si>
   <si>
+    <t>M2 nut</t>
+  </si>
+  <si>
     <t>M3 nut</t>
   </si>
   <si>
-    <t>M3.5 nut</t>
-  </si>
-  <si>
     <t>M5 nut</t>
+  </si>
+  <si>
+    <t>M3-12mm nylon spacer</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/Screws-Spacer-Sleeves-Female-Repair/dp/B09TR3C3WR/ref=sr_1_2?crid=32DZ4ENC965DK&amp;dib=eyJ2IjoiMSJ9.dE7kt6IMk4x-XruzLJQ7fUn3KtIeSEE1j_eJI4grNNqjpF3c5b6jI0Xhe8pOc-hN3w0gyN_v3zZTQ3G7nCXpO2sIysTF0TrptezlqpyYj-CyrnEL9viQFKgbFhSUbZls0FX_LvIr2k9dAhWsIXbsqClJkoeWhhFJ9bUHcv5HwCkOgl4ktDLI6oYCtoKNIhejYHDJisqnKOKZbRL8g5GcRYkjFg0maDuCvRb1oQ749WNrm_lDvr732pkmfOzBWRCxa-tUgX7_XBrrhZPCEaizEmXjodQRwt5sHuWluQgVacY.bk0o0vSn3h8nL8-DOLFB8Ke9VJ3LreKag39EJVZTCC0&amp;dib_tag=se&amp;keywords=Nylon+screws+nuts+spacers&amp;qid=1728318721&amp;s=industrial&amp;sprefix=nylon+screws+nuts+spacers%2Cindustrial%2C95&amp;sr=1-2</t>
   </si>
   <si>
     <t>M3-10mm nylon Screw</t>
@@ -494,7 +506,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -584,6 +596,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -783,8 +798,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CustomerList" displayName="CustomerList" ref="B4:F61" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="B4:F61" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CustomerList" displayName="CustomerList" ref="B4:F62" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="B4:F62" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Components" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Units ()" dataDxfId="3"/>
@@ -1032,10 +1047,10 @@
     <tabColor theme="6" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="30" customHeight="1"/>
@@ -1491,15 +1506,21 @@
       <c r="F30" s="28"/>
     </row>
     <row r="31" spans="2:15" ht="30" customHeight="1">
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="28">
+        <v>1</v>
+      </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
+      <c r="E31" s="28" t="s">
+        <v>52</v>
+      </c>
       <c r="F31" s="28"/>
     </row>
     <row r="32" spans="2:15" ht="30" customHeight="1">
       <c r="B32" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C32" s="17">
         <v>44</v>
@@ -1512,7 +1533,7 @@
     </row>
     <row r="33" spans="2:6" ht="30" customHeight="1">
       <c r="B33" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="17">
         <v>4</v>
@@ -1525,7 +1546,7 @@
     </row>
     <row r="34" spans="2:6" ht="30" customHeight="1">
       <c r="B34" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" s="17">
         <v>2</v>
@@ -1538,7 +1559,7 @@
     </row>
     <row r="35" spans="2:6" ht="30" customHeight="1">
       <c r="B35" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="17">
         <v>6</v>
@@ -1551,7 +1572,7 @@
     </row>
     <row r="36" spans="2:6" ht="30" customHeight="1">
       <c r="B36" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" s="17">
         <v>1</v>
@@ -1564,20 +1585,22 @@
     </row>
     <row r="37" spans="2:6" ht="30" customHeight="1">
       <c r="B37" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="17"/>
+      <c r="F37" s="17" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="38" spans="2:6" ht="30" customHeight="1">
       <c r="B38" s="17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C38" s="17">
         <v>8</v>
@@ -1590,7 +1613,7 @@
     </row>
     <row r="39" spans="2:6" ht="30" customHeight="1">
       <c r="B39" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C39" s="17">
         <v>2</v>
@@ -1603,10 +1626,10 @@
     </row>
     <row r="40" spans="2:6" ht="30" customHeight="1">
       <c r="B40" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C40" s="17">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17" t="s">
@@ -1616,10 +1639,10 @@
     </row>
     <row r="41" spans="2:6" ht="30" customHeight="1">
       <c r="B41" s="17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C41" s="17">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17" t="s">
@@ -1629,7 +1652,7 @@
     </row>
     <row r="42" spans="2:6" ht="30" customHeight="1">
       <c r="B42" s="17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C42" s="17">
         <v>2</v>
@@ -1642,53 +1665,55 @@
     </row>
     <row r="43" spans="2:6" ht="30" customHeight="1">
       <c r="B43" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C43" s="17">
         <v>4</v>
       </c>
       <c r="D43" s="17"/>
-      <c r="E43" s="17" t="s">
-        <v>52</v>
+      <c r="E43" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="F43" s="17"/>
     </row>
     <row r="44" spans="2:6" ht="30" customHeight="1">
       <c r="B44" s="17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C44" s="17">
         <v>4</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="17" t="s">
-        <v>52</v>
+      <c r="E44" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="F44" s="17"/>
     </row>
     <row r="45" spans="2:6" ht="30" customHeight="1">
-      <c r="B45" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
+      <c r="B45" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="17">
+        <v>4</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" spans="2:6" ht="30" customHeight="1">
-      <c r="B46" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="17">
-        <v>1</v>
-      </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
+      <c r="B46" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
     </row>
     <row r="47" spans="2:6" ht="30" customHeight="1">
-      <c r="B47" s="17" t="s">
-        <v>67</v>
+      <c r="B47" s="29" t="s">
+        <v>70</v>
       </c>
       <c r="C47" s="17">
         <v>1</v>
@@ -1699,7 +1724,7 @@
     </row>
     <row r="48" spans="2:6" ht="30" customHeight="1">
       <c r="B48" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C48" s="17">
         <v>1</v>
@@ -1710,10 +1735,10 @@
     </row>
     <row r="49" spans="2:6" ht="30" customHeight="1">
       <c r="B49" s="17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C49" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
@@ -1721,7 +1746,7 @@
     </row>
     <row r="50" spans="2:6" ht="30" customHeight="1">
       <c r="B50" s="17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C50" s="17">
         <v>2</v>
@@ -1732,7 +1757,7 @@
     </row>
     <row r="51" spans="2:6" ht="30" customHeight="1">
       <c r="B51" s="17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C51" s="17">
         <v>2</v>
@@ -1743,7 +1768,7 @@
     </row>
     <row r="52" spans="2:6" ht="30" customHeight="1">
       <c r="B52" s="17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C52" s="17">
         <v>2</v>
@@ -1754,10 +1779,10 @@
     </row>
     <row r="53" spans="2:6" ht="30" customHeight="1">
       <c r="B53" s="17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C53" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
@@ -1765,7 +1790,7 @@
     </row>
     <row r="54" spans="2:6" ht="30" customHeight="1">
       <c r="B54" s="17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C54" s="17">
         <v>4</v>
@@ -1776,10 +1801,10 @@
     </row>
     <row r="55" spans="2:6" ht="30" customHeight="1">
       <c r="B55" s="17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C55" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
@@ -1787,7 +1812,7 @@
     </row>
     <row r="56" spans="2:6" ht="30" customHeight="1">
       <c r="B56" s="17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C56" s="17">
         <v>1</v>
@@ -1798,7 +1823,7 @@
     </row>
     <row r="57" spans="2:6" ht="30" customHeight="1">
       <c r="B57" s="17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C57" s="17">
         <v>1</v>
@@ -1809,7 +1834,7 @@
     </row>
     <row r="58" spans="2:6" ht="30" customHeight="1">
       <c r="B58" s="17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C58" s="17">
         <v>1</v>
@@ -1820,7 +1845,7 @@
     </row>
     <row r="59" spans="2:6" ht="30" customHeight="1">
       <c r="B59" s="17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C59" s="17">
         <v>1</v>
@@ -1831,7 +1856,7 @@
     </row>
     <row r="60" spans="2:6" ht="30" customHeight="1">
       <c r="B60" s="17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C60" s="17">
         <v>1</v>
@@ -1842,7 +1867,7 @@
     </row>
     <row r="61" spans="2:6" ht="30" customHeight="1">
       <c r="B61" s="17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C61" s="17">
         <v>1</v>
@@ -1852,60 +1877,71 @@
       <c r="F61" s="17"/>
     </row>
     <row r="62" spans="2:6" ht="30" customHeight="1">
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
+      <c r="B62" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="17">
+        <v>1</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
     </row>
     <row r="63" spans="2:6" ht="30" customHeight="1">
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
     </row>
     <row r="64" spans="2:6" ht="30" customHeight="1">
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
     </row>
     <row r="65" spans="2:6" ht="30" customHeight="1">
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
     </row>
     <row r="66" spans="2:6" ht="30" customHeight="1">
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
     </row>
     <row r="67" spans="2:6" ht="30" customHeight="1">
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
     </row>
     <row r="68" spans="2:6" ht="30" customHeight="1">
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
     </row>
     <row r="69" spans="2:6" ht="30" customHeight="1">
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+    </row>
+    <row r="70" spans="2:6" ht="30" customHeight="1">
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1939,15 +1975,18 @@
     <hyperlink ref="E29" r:id="rId18" xr:uid="{9885E899-EEED-48B9-A704-723623E2F39B}"/>
     <hyperlink ref="E15" r:id="rId19" xr:uid="{BC6C6574-C29D-4D65-A01A-D5341F47E438}"/>
     <hyperlink ref="E14" r:id="rId20" display="https://www.amazon.com/FPVDrone-Connectors-Connector-Multicopter-Quadcopter/dp/B0874BMYHZ/ref=sr_1_42?dib=eyJ2IjoiMSJ9.DaKl1hZzxQ8-Gjv6GV5Nm1B3mcJ-vVLsH29TbPtgvHV4Qt97ZZmwWpBXHCuth8sl8KSCBFgab2G-UR0kAa0BzWfsYkW-fY3skub0LAYZiXL2hVOZHpu_z4ODfhlK-zZCcQDQNYWpl_Z_t-qUJdy-aNxoFp4ovpuoGA6nvcH6lFw6Vgz0JOPx86asHzH1LNCag3DrY6bJBR64O6fiDkObzUrKtcawxhOKTzHz71PVxadvNDJplak8cjCBD78M0ZF7yYlW8IwLiszcfsfDnpDyAEmqCbPUg0OWIL5NCxD09B0.DMqmSBWIomWzQP2sEWBTp0ophM9oPKS60Pb4y4L1sqc&amp;dib_tag=se&amp;keywords=xt60+connectors&amp;qid=1726731957&amp;sr=8-42" xr:uid="{9075A4CF-53A8-4E91-B60C-276787F2206B}"/>
+    <hyperlink ref="E43" r:id="rId21" display="https://www.amazon.de/-/en/Screws-Spacer-Sleeves-Female-Repair/dp/B09TR3C3WR/ref=sr_1_2?crid=32DZ4ENC965DK&amp;dib=eyJ2IjoiMSJ9.dE7kt6IMk4x-XruzLJQ7fUn3KtIeSEE1j_eJI4grNNqjpF3c5b6jI0Xhe8pOc-hN3w0gyN_v3zZTQ3G7nCXpO2sIysTF0TrptezlqpyYj-CyrnEL9viQFKgbFhSUbZls0FX_LvIr2k9dAhWsIXbsqClJkoeWhhFJ9bUHcv5HwCkOgl4ktDLI6oYCtoKNIhejYHDJisqnKOKZbRL8g5GcRYkjFg0maDuCvRb1oQ749WNrm_lDvr732pkmfOzBWRCxa-tUgX7_XBrrhZPCEaizEmXjodQRwt5sHuWluQgVacY.bk0o0vSn3h8nL8-DOLFB8Ke9VJ3LreKag39EJVZTCC0&amp;dib_tag=se&amp;keywords=Nylon+screws+nuts+spacers&amp;qid=1728318721&amp;s=industrial&amp;sprefix=nylon+screws+nuts+spacers%2Cindustrial%2C95&amp;sr=1-2" xr:uid="{1A7EACF8-C449-4306-9ABD-3BB2BD114268}"/>
+    <hyperlink ref="E44" r:id="rId22" display="https://www.amazon.de/-/en/Screws-Spacer-Sleeves-Female-Repair/dp/B09TR3C3WR/ref=sr_1_2?crid=32DZ4ENC965DK&amp;dib=eyJ2IjoiMSJ9.dE7kt6IMk4x-XruzLJQ7fUn3KtIeSEE1j_eJI4grNNqjpF3c5b6jI0Xhe8pOc-hN3w0gyN_v3zZTQ3G7nCXpO2sIysTF0TrptezlqpyYj-CyrnEL9viQFKgbFhSUbZls0FX_LvIr2k9dAhWsIXbsqClJkoeWhhFJ9bUHcv5HwCkOgl4ktDLI6oYCtoKNIhejYHDJisqnKOKZbRL8g5GcRYkjFg0maDuCvRb1oQ749WNrm_lDvr732pkmfOzBWRCxa-tUgX7_XBrrhZPCEaizEmXjodQRwt5sHuWluQgVacY.bk0o0vSn3h8nL8-DOLFB8Ke9VJ3LreKag39EJVZTCC0&amp;dib_tag=se&amp;keywords=Nylon+screws+nuts+spacers&amp;qid=1728318721&amp;s=industrial&amp;sprefix=nylon+screws+nuts+spacers%2Cindustrial%2C95&amp;sr=1-2" xr:uid="{CE37D9BE-3C95-42D6-BCEB-DDBCFBB7634A}"/>
+    <hyperlink ref="E45" r:id="rId23" display="https://www.amazon.de/-/en/Screws-Spacer-Sleeves-Female-Repair/dp/B09TR3C3WR/ref=sr_1_2?crid=32DZ4ENC965DK&amp;dib=eyJ2IjoiMSJ9.dE7kt6IMk4x-XruzLJQ7fUn3KtIeSEE1j_eJI4grNNqjpF3c5b6jI0Xhe8pOc-hN3w0gyN_v3zZTQ3G7nCXpO2sIysTF0TrptezlqpyYj-CyrnEL9viQFKgbFhSUbZls0FX_LvIr2k9dAhWsIXbsqClJkoeWhhFJ9bUHcv5HwCkOgl4ktDLI6oYCtoKNIhejYHDJisqnKOKZbRL8g5GcRYkjFg0maDuCvRb1oQ749WNrm_lDvr732pkmfOzBWRCxa-tUgX7_XBrrhZPCEaizEmXjodQRwt5sHuWluQgVacY.bk0o0vSn3h8nL8-DOLFB8Ke9VJ3LreKag39EJVZTCC0&amp;dib_tag=se&amp;keywords=Nylon+screws+nuts+spacers&amp;qid=1728318721&amp;s=industrial&amp;sprefix=nylon+screws+nuts+spacers%2Cindustrial%2C95&amp;sr=1-2" xr:uid="{4F937678-3519-4723-96D6-837D2CCFC84D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="45" fitToHeight="0" orientation="landscape" r:id="rId21"/>
+  <pageSetup scale="45" fitToHeight="0" orientation="landscape" r:id="rId24"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1962,6 +2001,26 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2273,36 +2332,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2F9FC5B-1419-41E5-B909-94EB8B44A792}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F11600A7-1852-41A2-85E0-7A283C2047C4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9294272-CF55-45E6-BFA7-E13D5DFD9221}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9294272-CF55-45E6-BFA7-E13D5DFD9221}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F11600A7-1852-41A2-85E0-7A283C2047C4}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
